--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.yiuilubangen/Assets/Editor/Luban/StartConfig/Localhost/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68549A76-0A50-8C48-8A49-1E91DB5C3655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0716F-C2D8-D44C-B1F5-6E1D239908A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -120,13 +120,16 @@
   <si>
     <t>MapManager</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceDiscovery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +166,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -190,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -205,6 +215,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -511,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -713,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -815,6 +826,23 @@
         <v>20101</v>
       </c>
       <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="4">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0716F-C2D8-D44C-B1F5-6E1D239908A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DFCBC-0D9E-3F4E-A8C7-47BEAE5E1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
-    <sheet name="Realm" sheetId="2" r:id="rId2"/>
-    <sheet name="Game" sheetId="3" r:id="rId3"/>
+    <sheet name="Game" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -129,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +165,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,7 +207,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,19 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="13.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -606,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" customFormat="1">
       <c r="B4" s="4">
         <v>101</v>
       </c>
@@ -617,13 +608,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -637,13 +625,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4">
-        <v>10102</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -660,10 +648,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4">
-        <v>10103</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -680,10 +668,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4">
-        <v>10104</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -700,20 +688,40 @@
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="4">
+        <v>106</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>10105</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -724,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -814,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
@@ -827,7 +835,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" s="2" customFormat="1">
       <c r="B5" s="4">
         <v>202</v>
       </c>
@@ -835,183 +843,77 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4">
+        <v>30101</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="B6" s="4">
+        <v>203</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4">
+        <v>30102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="B7" s="4">
+        <v>204</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="B8" s="4">
+        <v>205</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
-      <c r="B4" s="4">
-        <v>301</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4">
-        <v>30101</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="B5" s="4">
-        <v>302</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4">
-        <v>30102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15">
-      <c r="B6" s="4">
-        <v>303</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="B7" s="4">
-        <v>304</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DFCBC-0D9E-3F4E-A8C7-47BEAE5E1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721612AC-4E24-3146-9A2A-6409E6755D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A6" sqref="A6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -852,7 +852,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="4">
-        <v>30101</v>
+        <v>20102</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -873,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="4">
-        <v>30102</v>
+        <v>20103</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721612AC-4E24-3146-9A2A-6409E6755D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACEE11-B6D5-DF43-93AA-8BF5FFFE0E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -745,7 +745,7 @@
     <col min="5" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,12 +814,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="B4" s="4">
         <v>201</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -833,14 +833,13 @@
       <c r="G4" s="4">
         <v>20101</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1">
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="B5" s="4">
         <v>202</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -854,14 +853,13 @@
       <c r="G5" s="4">
         <v>20102</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15">
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="B6" s="4">
         <v>203</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -876,12 +874,12 @@
         <v>20103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:7" ht="15">
       <c r="B7" s="4">
         <v>204</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -894,12 +892,12 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:7" ht="15">
       <c r="B8" s="4">
         <v>205</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACEE11-B6D5-DF43-93AA-8BF5FFFE0E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86816020-92DA-DB4D-8E32-061F45EB9F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G9"/>
+      <selection activeCell="G5" sqref="G5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -819,7 +819,7 @@
         <v>201</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="4">
-        <v>20101</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
@@ -839,7 +839,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="4">
-        <v>20102</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
@@ -859,7 +859,7 @@
         <v>203</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -871,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="4">
-        <v>20103</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -879,7 +879,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>205</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86816020-92DA-DB4D-8E32-061F45EB9F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6DA14-3281-5843-8BFF-4A697B9ED260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -650,9 +650,7 @@
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4">
-        <v>10102</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="4">
@@ -670,9 +668,7 @@
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4">
-        <v>10103</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="4">
@@ -690,9 +686,7 @@
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4">
-        <v>10104</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="4">
@@ -710,9 +704,7 @@
       <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4">
-        <v>10105</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="1"/>
@@ -734,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -830,9 +822,7 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4">
-        <v>20001</v>
-      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="B5" s="4">
@@ -850,9 +840,7 @@
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4">
-        <v>20002</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="B6" s="4">
@@ -870,9 +858,7 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4">
-        <v>20003</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="B7" s="4">

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6DA14-3281-5843-8BFF-4A697B9ED260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49384E08-4F68-CA46-BC8B-9F26793285C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3740" windowWidth="31180" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13340" yWindow="3340" windowWidth="31180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="1" r:id="rId1"/>
     <sheet name="Game" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -511,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -528,7 +527,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,9 +596,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1">
+    <row r="4" spans="1:8" customFormat="1">
       <c r="B4" s="4">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -614,9 +613,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="B5" s="4">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -634,9 +633,9 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="B6" s="4">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -652,9 +651,9 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" s="4">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -670,9 +669,9 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="B8" s="4">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -688,9 +687,9 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="B9" s="4">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -706,14 +705,97 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="1"/>
+    <row r="10" spans="1:8">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" ht="15">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" ht="15">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="15">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -724,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -806,96 +888,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
-      <c r="B4" s="4">
-        <v>201</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
-      <c r="B5" s="4">
-        <v>202</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="B6" s="4">
-        <v>203</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="B7" s="4">
-        <v>204</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="B8" s="4">
-        <v>205</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartScene.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Router" sheetId="1" r:id="rId1"/>
     <sheet name="Game" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,9 @@
     <t>外网端口</t>
   </si>
   <si>
+    <t>ServiceDiscovery</t>
+  </si>
+  <si>
     <t>RouterManager</t>
   </si>
   <si>
@@ -117,17 +120,17 @@
   </si>
   <si>
     <t>MapManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceDiscovery</t>
+  </si>
+  <si>
+    <t>Match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +152,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -193,17 +189,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -510,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -518,16 +514,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" style="2"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1" style="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1" style="1"/>
+    <col min="7" max="8" width="13.1640625" customWidth="1" style="1"/>
+    <col min="9" max="16384" width="9" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -573,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -596,7 +592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1">
+    <row r="4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -607,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -624,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4">
         <v>10101</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -644,14 +640,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -662,14 +658,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -680,14 +676,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -698,14 +694,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -716,15 +712,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -735,15 +731,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="15">
+    <row r="12" ht="15">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -754,14 +750,14 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="15">
+    <row r="13" ht="15">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -772,14 +768,14 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="15">
+    <row r="14" ht="15">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -790,17 +786,35 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -819,7 +833,7 @@
     <col min="5" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,5 +905,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to ETET under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
+
 </file>